--- a/sem1/CО-ИП-21-2.xlsx
+++ b/sem1/CО-ИП-21-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/db-management-and-automation/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60733AEC-2E46-B545-94E0-E23A83A37225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46020917-8F7A-0241-92CD-9D8757D4D81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,12 +527,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,14 +1782,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
-    <col min="3" max="23" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.1640625" style="21" customWidth="1"/>
+    <col min="10" max="23" width="9.1640625" style="1" customWidth="1"/>
     <col min="24" max="29" width="8.83203125" style="1" customWidth="1"/>
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1783,19 +1803,21 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="36">
         <v>45171</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="36">
         <v>45178</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="36">
         <v>45180</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="F1" s="36">
+        <v>45190</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1830,19 +1852,21 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1877,19 +1901,21 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="C3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1924,19 +1950,21 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1971,19 +1999,21 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2018,19 +2048,21 @@
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="C6" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -2065,19 +2097,21 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="D7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2112,19 +2146,21 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="D8" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -2159,19 +2195,21 @@
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="C9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -2206,19 +2244,21 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="C10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2253,19 +2293,21 @@
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -2300,19 +2342,21 @@
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2347,19 +2391,21 @@
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="C13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2394,19 +2440,21 @@
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="C14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -2441,19 +2489,21 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="C15" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2482,13 +2532,13 @@
       <c r="AI15" s="27"/>
     </row>
     <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -2616,7 +2666,7 @@
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="19"/>
@@ -2643,7 +2693,7 @@
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="20"/>
@@ -2720,7 +2770,7 @@
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="20"/>
@@ -2797,7 +2847,7 @@
       <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="20"/>
@@ -2874,7 +2924,7 @@
       <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="20"/>
@@ -2901,7 +2951,7 @@
       <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="20"/>
@@ -2990,16 +3040,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
-    <col min="3" max="24" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="9.1640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="8.83203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -3011,22 +3062,24 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="53">
         <v>45171</v>
       </c>
-      <c r="D1" s="52">
+      <c r="D1" s="34">
         <v>45178</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="55">
         <v>45180</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="36">
         <v>45182</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="G1" s="36">
+        <v>45190</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -3059,22 +3112,24 @@
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -3107,22 +3162,24 @@
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -3155,22 +3212,24 @@
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="C4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -3203,22 +3262,24 @@
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="C5" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -3251,22 +3312,24 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="C6" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -3299,22 +3362,24 @@
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="C7" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -3347,22 +3412,24 @@
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="C8" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -3395,22 +3462,24 @@
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="C9" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -3443,22 +3512,24 @@
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="C10" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -3491,22 +3562,24 @@
       <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="C11" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -3539,22 +3612,24 @@
       <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="C12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -3587,22 +3662,24 @@
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="C13" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -3629,14 +3706,14 @@
       <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -3686,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" zoomScale="225" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3769,7 +3846,7 @@
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="20"/>
@@ -3843,7 +3920,7 @@
       <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="20"/>
@@ -3881,7 +3958,7 @@
       <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="20"/>
@@ -3919,7 +3996,7 @@
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="20"/>
